--- a/tambah_akun_bank.xlsx
+++ b/tambah_akun_bank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="23">
   <si>
     <t>nama_bank</t>
   </si>
@@ -72,6 +72,27 @@
   </si>
   <si>
     <t>expected_nama_bank</t>
+  </si>
+  <si>
+    <t>Surabay4_</t>
+  </si>
+  <si>
+    <t>Suraba</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Intan123</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intan </t>
+  </si>
+  <si>
+    <t>98765432abc</t>
   </si>
 </sst>
 </file>
@@ -389,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +476,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -467,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>123456</v>
+        <v>12345678</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -477,6 +498,146 @@
       </c>
       <c r="K2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>98765432</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>98765432</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>98765432</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>98765432</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>987654</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>987654</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>98765432</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
